--- a/capturability/result/calculation_time.xlsx
+++ b/capturability/result/calculation_time.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuribayashi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devel\study\capturability\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14040"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="1" r:id="rId1"/>
-    <sheet name="datas" sheetId="2" r:id="rId2"/>
+    <sheet name="plot" sheetId="3" r:id="rId1"/>
+    <sheet name="summary" sheetId="1" r:id="rId2"/>
+    <sheet name="datas" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>GPU</t>
   </si>
@@ -116,6 +117,26 @@
   <si>
     <t>DSP</t>
   </si>
+  <si>
+    <t>exe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -196,13 +217,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,6 +262,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -239,7 +274,19 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -257,6 +304,3051 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>exe</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>plot!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>plot!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>262.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1423.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4132.6000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AA1-499C-9013-291ECDC49148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>plot!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>plot!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100381.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349159.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6AA1-499C-9013-291ECDC49148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2019075408"/>
+        <c:axId val="2019082896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2019075408"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019082896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2019082896"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019075408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>save</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>plot!$A$12:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>plot!$B$12:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>577.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26340.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88897.600000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D80-4DC7-BF67-6C5BBFAA5F2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>plot!$A$12:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>plot!$C$12:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>483.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23251.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79078.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D80-4DC7-BF67-6C5BBFAA5F2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2019075408"/>
+        <c:axId val="2019082896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2019075408"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019082896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2019082896"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019075408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>sum</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>plot!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>plot!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>281.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>873.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27764.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93030.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3A1-463B-BAAE-1E0D52A7B406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>plot!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>plot!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>101.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2857.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123634.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>428239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3A1-463B-BAAE-1E0D52A7B406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2019075408"/>
+        <c:axId val="2019082896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2019075408"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019082896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2019082896"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019075408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,10 +3614,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="14"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1815</v>
+      </c>
+      <c r="B4">
+        <v>262.8</v>
+      </c>
+      <c r="C4">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>19845</v>
+      </c>
+      <c r="B5">
+        <v>295.8</v>
+      </c>
+      <c r="C5">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>257193</v>
+      </c>
+      <c r="B6">
+        <v>1423.2</v>
+      </c>
+      <c r="C6">
+        <v>100381.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
+        <v>600831</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4132.6000000000004</v>
+      </c>
+      <c r="C7" s="4">
+        <v>349159.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1815</v>
+      </c>
+      <c r="B12">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C12">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>19845</v>
+      </c>
+      <c r="B13">
+        <v>577.79999999999995</v>
+      </c>
+      <c r="C13">
+        <v>483.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>257193</v>
+      </c>
+      <c r="B14">
+        <v>26340.400000000001</v>
+      </c>
+      <c r="C14">
+        <v>23251.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
+        <v>600831</v>
+      </c>
+      <c r="B15" s="4">
+        <v>88897.600000000006</v>
+      </c>
+      <c r="C15" s="4">
+        <v>79078.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1815</v>
+      </c>
+      <c r="B20">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="C20">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>19845</v>
+      </c>
+      <c r="B21">
+        <v>873.8</v>
+      </c>
+      <c r="C21">
+        <v>2857.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>257193</v>
+      </c>
+      <c r="B22">
+        <v>27764.2</v>
+      </c>
+      <c r="C22">
+        <v>123634.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
+        <v>600831</v>
+      </c>
+      <c r="B23" s="4">
+        <v>93030.8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>428239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -538,7 +3860,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="4"/>
@@ -616,7 +3938,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -644,30 +3966,30 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" s="8" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
@@ -977,7 +4299,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1005,30 +4327,30 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
     </row>
     <row r="19" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
@@ -1203,7 +4525,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="4"/>
@@ -1227,30 +4549,30 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11" t="s">
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
     </row>
     <row r="27" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
@@ -1577,7 +4899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
